--- a/DataFiles/Data_study/Data_analysis.xlsx
+++ b/DataFiles/Data_study/Data_analysis.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="People" sheetId="2" r:id="rId2"/>
+    <sheet name="LOOCV DATA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Train #</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>20_4mo</t>
   </si>
 </sst>
 </file>
@@ -289,11 +293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359356112"/>
-        <c:axId val="359961168"/>
+        <c:axId val="423791936"/>
+        <c:axId val="423768416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359356112"/>
+        <c:axId val="423791936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -412,13 +416,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359961168"/>
+        <c:crossAx val="423768416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359961168"/>
+        <c:axId val="423768416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -537,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359356112"/>
+        <c:crossAx val="423791936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -783,11 +787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414403376"/>
-        <c:axId val="412304384"/>
+        <c:axId val="423788576"/>
+        <c:axId val="423787456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414403376"/>
+        <c:axId val="423788576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,12 +848,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412304384"/>
+        <c:crossAx val="423787456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412304384"/>
+        <c:axId val="423787456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -907,7 +911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414403376"/>
+        <c:crossAx val="423788576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1172,11 +1176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349396704"/>
-        <c:axId val="359315216"/>
+        <c:axId val="423796416"/>
+        <c:axId val="423795296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349396704"/>
+        <c:axId val="423796416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,12 +1237,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359315216"/>
+        <c:crossAx val="423795296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359315216"/>
+        <c:axId val="423795296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1299,459 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349396704"/>
+        <c:crossAx val="423796416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LOOCV DATA'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="100"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOOCV DATA'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOOCV DATA'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.324324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51351400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48648599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48648599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56756799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48648599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51351400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48648599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54054100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56756799999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56756799999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="423801456"/>
+        <c:axId val="423767856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="423801456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Number of Days of Data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423767856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423767856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>LOOCV Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423801456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1464,6 +1920,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2497,6 +2993,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3091,6 +4103,41 @@
       <xdr:colOff>528637</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3377,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>I2*$G$4</f>
+        <f t="shared" ref="B2:B12" si="0">I2*$G$4</f>
         <v>7</v>
       </c>
       <c r="C2" s="1">
@@ -3429,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>I3*$G$4</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C3" s="1">
@@ -3451,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>I4*$G$4</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C4" s="1">
@@ -3473,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>I5*$G$4</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C5" s="1">
@@ -3488,7 +4535,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>I6*$G$4</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C6" s="1">
@@ -3503,7 +4550,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>I7*$G$4</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C7" s="1">
@@ -3518,7 +4565,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>I8*$G$4</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="C8" s="1">
@@ -3533,7 +4580,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>I9*$G$4</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="C9" s="1">
@@ -3548,7 +4595,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>I10*$G$4</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="C10" s="1">
@@ -3563,7 +4610,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>I11*$G$4</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="C11" s="1">
@@ -3578,7 +4625,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>I12*$G$4</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="C12" s="1">
@@ -3619,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:B45" si="0">I3*$G$4</f>
+        <f t="shared" ref="B36:B45" si="1">I3*$G$4</f>
         <v>14</v>
       </c>
       <c r="C36" s="1">
@@ -3631,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C37" s="1">
@@ -3643,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C38" s="1">
@@ -3655,7 +4702,7 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C39" s="1">
@@ -3667,7 +4714,7 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C40" s="1">
@@ -3679,7 +4726,7 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="C41" s="1">
@@ -3691,7 +4738,7 @@
         <v>7</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="C42" s="1">
@@ -3703,7 +4750,7 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="C43" s="1">
@@ -3715,7 +4762,7 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="C44" s="1">
@@ -3727,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="C45" s="1">
@@ -3745,7 +4792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3810,7 +4857,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A22" si="0">A3-5</f>
+        <f t="shared" ref="A4:A15" si="0">A3-5</f>
         <v>59</v>
       </c>
       <c r="B4" s="1">
@@ -3823,7 +4870,7 @@
         <v>0.932203</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E21" si="1">AVERAGE(B4:D4)</f>
+        <f t="shared" ref="E4:E15" si="1">AVERAGE(B4:D4)</f>
         <v>0.94351866666666673</v>
       </c>
     </row>
@@ -4105,6 +5152,242 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B12" si="0">I2*$G$4</f>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.324324</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>365.24</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.51351400000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>G2/12</f>
+        <v>30.436666666666667</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.48648599999999997</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.48648599999999997</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.56756799999999996</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.48648599999999997</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.51351400000000003</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.48648599999999997</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.54054100000000005</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.56756799999999996</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.56756799999999996</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <f>2*G3</f>
+        <v>60.873333333333335</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.43243200000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>4*G3</f>
+        <v>121.74666666666667</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.43243200000000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataFiles/Data_study/Data_analysis.xlsx
+++ b/DataFiles/Data_study/Data_analysis.xlsx
@@ -293,11 +293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423791936"/>
-        <c:axId val="423768416"/>
+        <c:axId val="267439776"/>
+        <c:axId val="333848336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423791936"/>
+        <c:axId val="267439776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -416,13 +416,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423768416"/>
+        <c:crossAx val="333848336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423768416"/>
+        <c:axId val="333848336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -541,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423791936"/>
+        <c:crossAx val="267439776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -605,7 +605,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -787,11 +786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423788576"/>
-        <c:axId val="423787456"/>
+        <c:axId val="327752592"/>
+        <c:axId val="327753152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423788576"/>
+        <c:axId val="327752592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,12 +847,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423787456"/>
+        <c:crossAx val="327753152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423787456"/>
+        <c:axId val="327753152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -911,7 +910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423788576"/>
+        <c:crossAx val="327752592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1176,11 +1175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423796416"/>
-        <c:axId val="423795296"/>
+        <c:axId val="327755392"/>
+        <c:axId val="333260864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423796416"/>
+        <c:axId val="327755392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,12 +1236,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423795296"/>
+        <c:crossAx val="333260864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423795296"/>
+        <c:axId val="333260864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423796416"/>
+        <c:crossAx val="327755392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1515,11 +1514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423801456"/>
-        <c:axId val="423767856"/>
+        <c:axId val="333263104"/>
+        <c:axId val="333263664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423801456"/>
+        <c:axId val="333263104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1558,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2200"/>
                   <a:t>Number of Days of Data</a:t>
                 </a:r>
               </a:p>
@@ -1617,7 +1616,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1632,12 +1631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423767856"/>
+        <c:crossAx val="333263664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423767856"/>
+        <c:axId val="333263664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -1665,7 +1664,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1678,7 +1677,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2200" baseline="0"/>
                   <a:t>LOOCV Accuracy</a:t>
                 </a:r>
               </a:p>
@@ -1698,7 +1697,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1736,7 +1735,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1751,7 +1750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423801456"/>
+        <c:crossAx val="333263104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4130,12 +4129,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>424543</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34476</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -4792,7 +4791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5163,8 +5162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataFiles/Data_study/Data_analysis.xlsx
+++ b/DataFiles/Data_study/Data_analysis.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\DataFiles\Data_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/DataFiles/Data_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="People" sheetId="2" r:id="rId2"/>
     <sheet name="LOOCV DATA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -195,7 +201,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:forward val="200"/>
+            <c:forward val="200.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -206,37 +212,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,37 +254,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.43243199999999998</c:v>
+                  <c:v>0.432432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40540500000000002</c:v>
+                  <c:v>0.405405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59459499999999998</c:v>
+                  <c:v>0.594595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59459499999999998</c:v>
+                  <c:v>0.594595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62160000000000004</c:v>
+                  <c:v>0.6216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67567600000000005</c:v>
+                  <c:v>0.675676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64859999999999995</c:v>
+                  <c:v>0.6486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64864900000000003</c:v>
+                  <c:v>0.648649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67567600000000005</c:v>
+                  <c:v>0.675676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70270299999999997</c:v>
+                  <c:v>0.702703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70269999999999999</c:v>
+                  <c:v>0.7027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,15 +299,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267439776"/>
-        <c:axId val="333848336"/>
+        <c:axId val="2143679056"/>
+        <c:axId val="2143685232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267439776"/>
+        <c:axId val="2143679056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
+          <c:max val="400.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -349,7 +355,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -416,16 +421,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333848336"/>
+        <c:crossAx val="2143685232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="50.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333848336"/>
+        <c:axId val="2143685232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -474,7 +479,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -541,7 +545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267439776"/>
+        <c:crossAx val="2143679056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -699,37 +703,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,37 +745,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.40539999999999998</c:v>
+                  <c:v>0.4054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45950000000000002</c:v>
+                  <c:v>0.4595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51349999999999996</c:v>
+                  <c:v>0.5135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64864900000000003</c:v>
+                  <c:v>0.648649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59459499999999998</c:v>
+                  <c:v>0.594595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62162200000000001</c:v>
+                  <c:v>0.621622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62162200000000001</c:v>
+                  <c:v>0.621622</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64864900000000003</c:v>
+                  <c:v>0.648649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64859999999999995</c:v>
+                  <c:v>0.6486</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70270299999999997</c:v>
+                  <c:v>0.702703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62160000000000004</c:v>
+                  <c:v>0.6216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,11 +790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327752592"/>
-        <c:axId val="327753152"/>
+        <c:axId val="2142530336"/>
+        <c:axId val="2142527136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="327752592"/>
+        <c:axId val="2142530336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,15 +851,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327753152"/>
+        <c:crossAx val="2142527136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327753152"/>
+        <c:axId val="2142527136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -910,7 +914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327752592"/>
+        <c:crossAx val="2142530336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -974,7 +978,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1070,46 +1073,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,46 +1124,46 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>0.95650000000000002</c:v>
+                  <c:v>0.9565</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.921875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94351866666666673</c:v>
+                  <c:v>0.943518666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94440000000000002</c:v>
+                  <c:v>0.9444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93197233333333329</c:v>
+                  <c:v>0.931972333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90151499999999996</c:v>
+                  <c:v>0.901515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95726499999999992</c:v>
+                  <c:v>0.957265</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92647049999999997</c:v>
+                  <c:v>0.9264705</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96551700000000007</c:v>
+                  <c:v>0.965517</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95832100000000009</c:v>
+                  <c:v>0.958321</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.982456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95238066666666665</c:v>
+                  <c:v>0.952380666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9629629999999999</c:v>
+                  <c:v>0.962963</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,11 +1178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327755392"/>
-        <c:axId val="333260864"/>
+        <c:axId val="2143738736"/>
+        <c:axId val="2143741968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="327755392"/>
+        <c:axId val="2143738736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,12 +1239,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333260864"/>
+        <c:crossAx val="2143741968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333260864"/>
+        <c:axId val="2143741968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327755392"/>
+        <c:crossAx val="2143738736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1416,7 +1419,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:forward val="100"/>
+            <c:forward val="100.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1427,37 +1430,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,34 +1475,34 @@
                   <c:v>0.324324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51351400000000003</c:v>
+                  <c:v>0.513514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48648599999999997</c:v>
+                  <c:v>0.486486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48648599999999997</c:v>
+                  <c:v>0.486486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56756799999999996</c:v>
+                  <c:v>0.567568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48648599999999997</c:v>
+                  <c:v>0.486486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51351400000000003</c:v>
+                  <c:v>0.513514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48648599999999997</c:v>
+                  <c:v>0.486486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54054100000000005</c:v>
+                  <c:v>0.540541</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56756799999999996</c:v>
+                  <c:v>0.567568</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56756799999999996</c:v>
+                  <c:v>0.567568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,11 +1517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333263104"/>
-        <c:axId val="333263664"/>
+        <c:axId val="2143806752"/>
+        <c:axId val="2143812688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333263104"/>
+        <c:axId val="2143806752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,15 +1634,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333263664"/>
+        <c:crossAx val="2143812688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333263664"/>
+        <c:axId val="2143812688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000007"/>
+          <c:max val="0.7"/>
+          <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1750,7 +1754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333263104"/>
+        <c:crossAx val="2143806752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4204,9 +4208,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -4239,9 +4243,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -4427,12 +4431,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4492,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4634,7 +4638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>0.40539999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>0.45950000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>0.51349999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -4696,7 +4700,7 @@
         <v>0.64864900000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -4708,7 +4712,7 @@
         <v>0.59459499999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>0.62162200000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6</v>
       </c>
@@ -4732,7 +4736,7 @@
         <v>0.62162200000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>0.64864900000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8</v>
       </c>
@@ -4756,7 +4760,7 @@
         <v>0.64859999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>0.70270299999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10</v>
       </c>
@@ -4795,13 +4799,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>69</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>0.95650000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2-5</f>
         <v>64</v>
@@ -4854,7 +4858,7 @@
         <v>0.921875</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A15" si="0">A3-5</f>
         <v>59</v>
@@ -4873,7 +4877,7 @@
         <v>0.94351866666666673</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4892,7 +4896,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4911,7 +4915,7 @@
         <v>0.93197233333333329</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4930,7 +4934,7 @@
         <v>0.90151499999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4949,7 +4953,7 @@
         <v>0.95726499999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4966,7 +4970,7 @@
         <v>0.92647049999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4985,7 +4989,7 @@
         <v>0.96551700000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5004,7 +5008,7 @@
         <v>0.95832100000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5023,7 +5027,7 @@
         <v>0.982456</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5042,7 +5046,7 @@
         <v>0.95238066666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5061,7 +5065,7 @@
         <v>0.9629629999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5080,76 +5084,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
   </sheetData>
@@ -5162,13 +5166,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5200,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5319,7 +5323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>0.43243200000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>

--- a/DataFiles/Data_study/Data_analysis.xlsx
+++ b/DataFiles/Data_study/Data_analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/DataFiles/Data_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\DataFiles\Data_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="12360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28785" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,11 @@
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -201,7 +198,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:forward val="200.0"/>
+            <c:forward val="200"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -212,37 +209,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224.0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,37 +251,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.432432</c:v>
+                  <c:v>0.43243199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.405405</c:v>
+                  <c:v>0.40540500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.594595</c:v>
+                  <c:v>0.59459499999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.594595</c:v>
+                  <c:v>0.59459499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6216</c:v>
+                  <c:v>0.62160000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.675676</c:v>
+                  <c:v>0.67567600000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6486</c:v>
+                  <c:v>0.64859999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.648649</c:v>
+                  <c:v>0.64864900000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.675676</c:v>
+                  <c:v>0.67567600000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.702703</c:v>
+                  <c:v>0.70270299999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7027</c:v>
+                  <c:v>0.70269999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,15 +296,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143679056"/>
-        <c:axId val="2143685232"/>
+        <c:axId val="477360544"/>
+        <c:axId val="477373984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143679056"/>
+        <c:axId val="477360544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400.0"/>
-          <c:min val="0.0"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -421,16 +418,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143685232"/>
+        <c:crossAx val="477373984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50.0"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143685232"/>
+        <c:axId val="477373984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -545,7 +542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143679056"/>
+        <c:crossAx val="477360544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -703,37 +700,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224.0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,37 +742,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.4054</c:v>
+                  <c:v>0.40539999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4595</c:v>
+                  <c:v>0.45950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5135</c:v>
+                  <c:v>0.51349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.648649</c:v>
+                  <c:v>0.64864900000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.594595</c:v>
+                  <c:v>0.59459499999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.621622</c:v>
+                  <c:v>0.62162200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.621622</c:v>
+                  <c:v>0.62162200000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.648649</c:v>
+                  <c:v>0.64864900000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6486</c:v>
+                  <c:v>0.64859999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.702703</c:v>
+                  <c:v>0.70270299999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6216</c:v>
+                  <c:v>0.62160000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,11 +787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142530336"/>
-        <c:axId val="2142527136"/>
+        <c:axId val="477361104"/>
+        <c:axId val="477372864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2142530336"/>
+        <c:axId val="477361104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,15 +848,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142527136"/>
+        <c:crossAx val="477372864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142527136"/>
+        <c:axId val="477372864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -914,7 +911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142530336"/>
+        <c:crossAx val="477361104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1073,46 +1070,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,46 +1121,46 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>0.9565</c:v>
+                  <c:v>0.95650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.921875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.943518666666667</c:v>
+                  <c:v>0.94351866666666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9444</c:v>
+                  <c:v>0.94440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.931972333333333</c:v>
+                  <c:v>0.93197233333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.901515</c:v>
+                  <c:v>0.90151499999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.957265</c:v>
+                  <c:v>0.95726499999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9264705</c:v>
+                  <c:v>0.92647049999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.965517</c:v>
+                  <c:v>0.96551700000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.958321</c:v>
+                  <c:v>0.95832100000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.982456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.952380666666667</c:v>
+                  <c:v>0.95238066666666665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.962963</c:v>
+                  <c:v>0.9629629999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,11 +1175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143738736"/>
-        <c:axId val="2143741968"/>
+        <c:axId val="477365024"/>
+        <c:axId val="477366144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143738736"/>
+        <c:axId val="477365024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,12 +1236,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143741968"/>
+        <c:crossAx val="477366144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143741968"/>
+        <c:axId val="477366144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143738736"/>
+        <c:crossAx val="477365024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1419,7 +1416,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:forward val="100.0"/>
+            <c:forward val="100"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1430,37 +1427,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224.0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,34 +1472,34 @@
                   <c:v>0.324324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.513514</c:v>
+                  <c:v>0.51351400000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.486486</c:v>
+                  <c:v>0.48648599999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.486486</c:v>
+                  <c:v>0.48648599999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.567568</c:v>
+                  <c:v>0.56756799999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.486486</c:v>
+                  <c:v>0.48648599999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.513514</c:v>
+                  <c:v>0.51351400000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.486486</c:v>
+                  <c:v>0.48648599999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.540541</c:v>
+                  <c:v>0.54054100000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.567568</c:v>
+                  <c:v>0.56756799999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.567568</c:v>
+                  <c:v>0.56756799999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,11 +1514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143806752"/>
-        <c:axId val="2143812688"/>
+        <c:axId val="444719008"/>
+        <c:axId val="444717888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143806752"/>
+        <c:axId val="444719008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,12 +1631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143812688"/>
+        <c:crossAx val="444717888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143812688"/>
+        <c:axId val="444717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.7"/>
@@ -1754,7 +1751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143806752"/>
+        <c:crossAx val="444719008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4431,12 +4428,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4453,7 +4450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4496,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4518,7 +4515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4533,7 +4530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4548,7 +4545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4563,7 +4560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4578,7 +4575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4608,7 +4605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4623,7 +4620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4638,7 +4635,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4652,7 +4649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -4664,7 +4661,7 @@
         <v>0.40539999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4676,7 +4673,7 @@
         <v>0.45950000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4688,7 +4685,7 @@
         <v>0.51349999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -4700,7 +4697,7 @@
         <v>0.64864900000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -4712,7 +4709,7 @@
         <v>0.59459499999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4724,7 +4721,7 @@
         <v>0.62162200000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -4736,7 +4733,7 @@
         <v>0.62162200000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7</v>
       </c>
@@ -4748,7 +4745,7 @@
         <v>0.64864900000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
@@ -4760,7 +4757,7 @@
         <v>0.64859999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -4772,7 +4769,7 @@
         <v>0.70270299999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -4799,13 +4796,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4822,7 +4819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>69</v>
       </c>
@@ -4839,7 +4836,7 @@
         <v>0.95650000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2-5</f>
         <v>64</v>
@@ -4858,7 +4855,7 @@
         <v>0.921875</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A15" si="0">A3-5</f>
         <v>59</v>
@@ -4877,7 +4874,7 @@
         <v>0.94351866666666673</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4896,7 +4893,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4915,7 +4912,7 @@
         <v>0.93197233333333329</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4934,7 +4931,7 @@
         <v>0.90151499999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4953,7 +4950,7 @@
         <v>0.95726499999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4970,7 +4967,7 @@
         <v>0.92647049999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4989,7 +4986,7 @@
         <v>0.96551700000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5008,7 +5005,7 @@
         <v>0.95832100000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5027,7 +5024,7 @@
         <v>0.982456</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5046,7 +5043,7 @@
         <v>0.95238066666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5065,7 +5062,7 @@
         <v>0.9629629999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5084,76 +5081,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
   </sheetData>
@@ -5167,12 +5164,12 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5204,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5226,7 +5223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5248,7 +5245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5263,7 +5260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5308,7 +5305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5323,7 +5320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5338,7 +5335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5353,7 +5350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5368,7 +5365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -5380,7 +5377,7 @@
         <v>0.43243200000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
